--- a/TestSuitSummary.xlsx
+++ b/TestSuitSummary.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="0" windowWidth="19100" windowHeight="14700" tabRatio="807"/>
+    <workbookView xWindow="8980" yWindow="0" windowWidth="25600" windowHeight="14640" tabRatio="807"/>
   </bookViews>
   <sheets>
-    <sheet name="4_" sheetId="7" r:id="rId1"/>
+    <sheet name="4_Final" sheetId="7" r:id="rId1"/>
     <sheet name="3_MoveDropout" sheetId="6" r:id="rId2"/>
     <sheet name="2_DiffNormalizedMethods" sheetId="5" r:id="rId3"/>
     <sheet name="1_Normalized" sheetId="3" r:id="rId4"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3836" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4096" uniqueCount="1216">
   <si>
     <t>Test Plan</t>
   </si>
@@ -3496,12 +3496,398 @@
     <t xml:space="preserve">
 Trail 5</t>
   </si>
+  <si>
+    <t>----&gt; 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Trail 5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Trail 5.2</t>
+  </si>
+  <si>
+    <t>----&gt; 100</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.915</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.917</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.918</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.922</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.926</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.906</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.357</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.008</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.035</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.912</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.014</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.005</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.942</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.006</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.007</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.932</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.331</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.931</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.933</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.003</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.346</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.401</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.803</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.626</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.184</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.858</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.453</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.067</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.876</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.433</t>
+  </si>
+  <si>
+    <t>Train Accuracy = 0.971</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.065</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.892</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.368</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.047</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.340</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.082</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.895</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.070</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.422</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.036</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.364</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.015</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.399</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.021</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.370</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.020</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.292</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.030</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.301</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.017</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.362</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.018</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.349</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.002</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.464</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.040</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.414</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.446</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.392</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.493</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.024</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.487</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.412</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.032</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.033</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.019</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.393</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.351</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.927</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.486</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.000</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.449</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.347</t>
+  </si>
+  <si>
+    <t>Remove RELU at the last layer of fully convolution.</t>
+  </si>
+  <si>
+    <t>2x (full conv + RELU + dropout)</t>
+  </si>
+  <si>
+    <t>1x (full conv + RELU)</t>
+  </si>
+  <si>
+    <t>2x (conv2d + RELU + maxpool)</t>
+  </si>
+  <si>
+    <t>2x (full conv + RELU)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2x (conv2d + RELU + maxpool + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dropout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2x (full conv + RELU + </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dropout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1x (full conv +</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RELU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Validation Loss = 0.323</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.037</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.332</t>
+  </si>
+  <si>
+    <t>Train Accuracy = 0.879</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.385</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.817</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.608</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.219</t>
+  </si>
+  <si>
+    <t>Validation Accuracy = 0.861</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.463</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.146</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.354</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.034</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.258</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.272</t>
+  </si>
+  <si>
+    <t>Train Loss = 0.046</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.296</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.413</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.305</t>
+  </si>
+  <si>
+    <t>Validation Loss = 0.281</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3567,6 +3953,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3586,7 +3979,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3679,8 +4072,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="201">
+  <cellStyleXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -3882,8 +4293,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3944,21 +4367,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3977,17 +4385,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="201">
+  <cellStyles count="213">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -4087,6 +4526,12 @@
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -4186,41 +4631,17 @@
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4606,6 +5027,311 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3441700" y="14668500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5245100" y="14668500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1031" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8851900" y="14668500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1034" name="AutoShape 10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7048500" y="14668500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1035" name="AutoShape 11"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10655300" y="14668500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1037" name="AutoShape 13"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12458700" y="14668500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4928,9 +5654,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:K233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G12" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -4938,76 +5664,82 @@
   <cols>
     <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="30"/>
       <c r="C1">
         <v>34799</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="30"/>
       <c r="C2">
         <v>4410</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="30"/>
       <c r="C3">
         <v>12630</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="22" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>340</v>
+        <v>1188</v>
       </c>
       <c r="C7" s="33"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="B8" s="33" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C8" s="33"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="B9" s="33" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C9" s="33"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" thickBot="1"/>
-    <row r="12" spans="1:8" ht="45">
+      <c r="B10" s="33" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" ht="16" thickBot="1"/>
+    <row r="12" spans="1:10" ht="45">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>7</v>
@@ -5027,255 +5759,317 @@
       <c r="G12" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="36" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="34" t="s">
+      <c r="I12" s="16" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="37" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="34" t="s">
+      <c r="I13" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="24" t="s">
         <v>929</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="24" t="s">
         <v>929</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="24" t="s">
         <v>929</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="24" t="s">
         <v>929</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="24" t="s">
         <v>929</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="24" t="s">
         <v>929</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="37" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="34" t="s">
+      <c r="I14" s="17" t="s">
+        <v>929</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="24">
         <v>1E-3</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="25" t="s">
         <v>770</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="24">
         <v>1E-3</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="24">
         <v>1E-3</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="37">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="34" t="s">
+      <c r="I15" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J15" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="28" t="s">
         <v>611</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="37" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="34" t="s">
+      <c r="I16" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="24">
         <v>30</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="24">
         <v>30</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="24">
         <v>30</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="24">
         <v>30</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="24">
         <v>30</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="24">
         <v>30</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="37">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="34" t="s">
+      <c r="I17" s="17">
+        <v>30</v>
+      </c>
+      <c r="J17" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="24">
         <v>256</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="24">
         <v>256</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="24">
         <v>256</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="24">
         <v>256</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="24">
         <v>256</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="24">
         <v>256</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="37">
         <v>256</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="34" t="s">
+      <c r="I18" s="26" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="24">
         <v>5</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="24">
         <v>5</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="24">
         <v>5</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="24">
         <v>5</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="24">
         <v>5</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="24">
         <v>5</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="37">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="34" t="s">
+      <c r="I19" s="17">
+        <v>5</v>
+      </c>
+      <c r="J19" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="24">
         <v>0.3</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="24">
         <v>0.3</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="24">
         <v>0.3</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="25" t="s">
         <v>1009</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="25" t="s">
         <v>1010</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="25" t="s">
         <v>1010</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="38" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="34" t="s">
+      <c r="I20" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="J20" s="25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="8"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
@@ -5285,174 +6079,217 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="34" t="s">
+      <c r="H23" s="39"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="24">
         <v>0.93</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="24">
         <v>0.92700000000000005</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="24">
         <v>0.91800000000000004</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="24">
         <v>0.98</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="24">
         <v>0.99</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="24">
         <v>0.98099999999999998</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="37">
         <v>0.997</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="34" t="s">
+      <c r="I24" s="17">
+        <v>0.997</v>
+      </c>
+      <c r="J24" s="24">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="29">
-        <f>(B24-$N$24)*$C$1</f>
+      <c r="B25" s="24">
+        <f>(B24-$M$24)*$C$1</f>
         <v>32363.070000000003</v>
       </c>
-      <c r="C25" s="29">
-        <f>(C24-$B$24)*$C$1</f>
+      <c r="C25" s="24">
+        <f t="shared" ref="C25:H25" si="0">(C24-$B$24)*$C$1</f>
         <v>-104.39700000000009</v>
       </c>
-      <c r="D25" s="29">
-        <f>(D24-$B$24)*$C$1</f>
+      <c r="D25" s="24">
+        <f t="shared" si="0"/>
         <v>-417.58800000000036</v>
       </c>
-      <c r="E25" s="29">
-        <f>(E24-$B$24)*$C$1</f>
+      <c r="E25" s="24">
+        <f t="shared" si="0"/>
         <v>1739.9499999999978</v>
       </c>
-      <c r="F25" s="29">
-        <f>(F24-$B$24)*$C$1</f>
+      <c r="F25" s="24">
+        <f t="shared" si="0"/>
         <v>2087.9399999999978</v>
       </c>
-      <c r="G25" s="29">
-        <f>(G24-$B$24)*$C$1</f>
+      <c r="G25" s="24">
+        <f t="shared" si="0"/>
         <v>1774.7489999999977</v>
       </c>
-      <c r="H25" s="17">
-        <f>(H24-$B$24)*$C$1</f>
+      <c r="H25" s="37">
+        <f t="shared" si="0"/>
         <v>2331.5329999999981</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="34" t="s">
+      <c r="I25" s="17">
+        <f>(I24-$H$24)*$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="40">
+        <f>(J24-$H$24)*$C$1</f>
+        <v>-69.598000000000056</v>
+      </c>
+      <c r="K25" s="41"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="24">
         <v>0.84599999999999997</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="24">
         <v>0.84199999999999997</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="24">
         <v>0.83699999999999997</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="24">
         <v>0.89300000000000002</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="24">
         <v>0.90700000000000003</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="24">
         <v>0.88600000000000001</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="37">
         <v>0.91900000000000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="34" t="s">
+      <c r="I26" s="17">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="J26" s="24">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="K26" s="41"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="29">
-        <f>(B26-$N$26)*$C$2</f>
+      <c r="B27" s="24">
+        <f>(B26-$M$26)*$C$2</f>
         <v>3730.8599999999997</v>
       </c>
-      <c r="C27" s="29">
-        <f>(C26-$B$26)*$C$2</f>
+      <c r="C27" s="24">
+        <f t="shared" ref="C27:H27" si="1">(C26-$B$26)*$C$2</f>
         <v>-17.640000000000015</v>
       </c>
-      <c r="D27" s="29">
-        <f>(D26-$B$26)*$C$2</f>
+      <c r="D27" s="24">
+        <f t="shared" si="1"/>
         <v>-39.690000000000033</v>
       </c>
-      <c r="E27" s="29">
-        <f>(E26-$B$26)*$C$2</f>
+      <c r="E27" s="24">
+        <f t="shared" si="1"/>
         <v>207.27000000000018</v>
       </c>
-      <c r="F27" s="29">
-        <f>(F26-$B$26)*$C$2</f>
+      <c r="F27" s="24">
+        <f t="shared" si="1"/>
         <v>269.01000000000022</v>
       </c>
-      <c r="G27" s="29">
-        <f>(G26-$B$26)*$C$2</f>
+      <c r="G27" s="24">
+        <f t="shared" si="1"/>
         <v>176.40000000000015</v>
       </c>
-      <c r="H27" s="17">
-        <f>(H26-$B$26)*$C$2</f>
+      <c r="H27" s="37">
+        <f t="shared" si="1"/>
         <v>321.93000000000029</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="16" thickBot="1">
-      <c r="A28" s="34" t="s">
+      <c r="I27" s="17">
+        <f>(I26-$H$26)*$C$2</f>
+        <v>79.380000000000067</v>
+      </c>
+      <c r="J27" s="40">
+        <f>(J26-$H$26)*$C$2</f>
+        <v>101.42999999999959</v>
+      </c>
+      <c r="K27" s="41"/>
+    </row>
+    <row r="28" spans="1:11" ht="16" thickBot="1">
+      <c r="A28" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="24">
         <f>ABS(B24-B26)</f>
         <v>8.4000000000000075E-2</v>
       </c>
-      <c r="C28" s="29">
-        <f t="shared" ref="B28:C28" si="0">ABS(C24-C26)</f>
+      <c r="C28" s="24">
+        <f t="shared" ref="C28" si="2">ABS(C24-C26)</f>
         <v>8.5000000000000075E-2</v>
       </c>
-      <c r="D28" s="29">
-        <f t="shared" ref="D28:E28" si="1">ABS(D24-D26)</f>
+      <c r="D28" s="24">
+        <f t="shared" ref="D28:E28" si="3">ABS(D24-D26)</f>
         <v>8.1000000000000072E-2</v>
       </c>
-      <c r="E28" s="29">
-        <f t="shared" si="1"/>
+      <c r="E28" s="24">
+        <f t="shared" si="3"/>
         <v>8.6999999999999966E-2</v>
       </c>
-      <c r="F28" s="29">
-        <f t="shared" ref="F28:G28" si="2">ABS(F24-F26)</f>
+      <c r="F28" s="24">
+        <f t="shared" ref="F28:G28" si="4">ABS(F24-F26)</f>
         <v>8.2999999999999963E-2</v>
       </c>
-      <c r="G28" s="29">
-        <f t="shared" si="2"/>
+      <c r="G28" s="24">
+        <f t="shared" si="4"/>
         <v>9.4999999999999973E-2</v>
       </c>
-      <c r="H28" s="20">
-        <f t="shared" ref="H28" si="3">ABS(H24-H26)</f>
+      <c r="H28" s="37">
+        <f t="shared" ref="H28:I28" si="5">ABS(H24-H26)</f>
         <v>7.7999999999999958E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="20">
+        <f t="shared" si="5"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="J28" s="24">
+        <f t="shared" ref="J28" si="6">ABS(J24-J26)</f>
+        <v>5.3000000000000047E-2</v>
+      </c>
+      <c r="K28" s="41"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="8"/>
       <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" ht="30">
+      <c r="K29" s="41"/>
+    </row>
+    <row r="30" spans="1:11" ht="30">
       <c r="A30" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="29" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:10">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -5474,8 +6311,14 @@
       <c r="H33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" t="s">
         <v>407</v>
       </c>
@@ -5497,8 +6340,14 @@
       <c r="H34" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="I34" t="s">
+        <v>933</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" t="s">
         <v>930</v>
       </c>
@@ -5520,8 +6369,22 @@
       <c r="H35" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="I35" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="I36" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" t="s">
         <v>27</v>
       </c>
@@ -5543,8 +6406,14 @@
       <c r="H37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="I37" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" t="s">
         <v>931</v>
       </c>
@@ -5567,7 +6436,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:10">
       <c r="B39" t="s">
         <v>211</v>
       </c>
@@ -5589,8 +6458,22 @@
       <c r="H39" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="I39" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="I40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -5612,8 +6495,14 @@
       <c r="H41" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="I41" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
       <c r="B42" t="s">
         <v>703</v>
       </c>
@@ -5635,8 +6524,14 @@
       <c r="H42" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="43" spans="2:8">
+      <c r="I42" t="s">
+        <v>1139</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
       <c r="B43" t="s">
         <v>695</v>
       </c>
@@ -5658,8 +6553,14 @@
       <c r="H43" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="45" spans="2:8">
+      <c r="I43" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
       <c r="B45" t="s">
         <v>33</v>
       </c>
@@ -5681,8 +6582,14 @@
       <c r="H45" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="46" spans="2:8">
+      <c r="I45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
       <c r="B46" t="s">
         <v>537</v>
       </c>
@@ -5704,8 +6611,14 @@
       <c r="H46" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="47" spans="2:8">
+      <c r="I46" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
       <c r="B47" t="s">
         <v>585</v>
       </c>
@@ -5727,8 +6640,22 @@
       <c r="H47" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="49" spans="2:8">
+      <c r="I47" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="I48" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
       <c r="B49" t="s">
         <v>36</v>
       </c>
@@ -5750,8 +6677,14 @@
       <c r="H49" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="2:8">
+      <c r="I49" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
       <c r="B50" t="s">
         <v>594</v>
       </c>
@@ -5774,7 +6707,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:10">
       <c r="B51" t="s">
         <v>876</v>
       </c>
@@ -5796,8 +6729,22 @@
       <c r="H51" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="I51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="I52" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
       <c r="B53" t="s">
         <v>39</v>
       </c>
@@ -5819,8 +6766,14 @@
       <c r="H53" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="I53" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
       <c r="B54" t="s">
         <v>745</v>
       </c>
@@ -5842,8 +6795,14 @@
       <c r="H54" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="I54" t="s">
+        <v>1146</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
       <c r="B55" t="s">
         <v>668</v>
       </c>
@@ -5865,8 +6824,14 @@
       <c r="H55" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="I55" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
       <c r="B57" t="s">
         <v>42</v>
       </c>
@@ -5888,8 +6853,14 @@
       <c r="H57" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="58" spans="2:8">
+      <c r="I57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
       <c r="B58" t="s">
         <v>883</v>
       </c>
@@ -5911,8 +6882,14 @@
       <c r="H58" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="59" spans="2:8">
+      <c r="I58" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
       <c r="B59" t="s">
         <v>735</v>
       </c>
@@ -5934,8 +6911,22 @@
       <c r="H59" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="61" spans="2:8">
+      <c r="I59" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="I60" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
       <c r="B61" t="s">
         <v>45</v>
       </c>
@@ -5957,8 +6948,14 @@
       <c r="H61" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="62" spans="2:8">
+      <c r="I61" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
       <c r="B62" t="s">
         <v>741</v>
       </c>
@@ -5981,7 +6978,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:10">
       <c r="B63" t="s">
         <v>932</v>
       </c>
@@ -6003,8 +7000,22 @@
       <c r="H63" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="65" spans="2:8">
+      <c r="I63" t="s">
+        <v>39</v>
+      </c>
+      <c r="J63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="I64" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
       <c r="B65" t="s">
         <v>48</v>
       </c>
@@ -6026,8 +7037,14 @@
       <c r="H65" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="2:8">
+      <c r="I65" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
       <c r="B66" t="s">
         <v>933</v>
       </c>
@@ -6049,8 +7066,14 @@
       <c r="H66" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="67" spans="2:8">
+      <c r="I66" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
       <c r="B67" t="s">
         <v>934</v>
       </c>
@@ -6072,13 +7095,19 @@
       <c r="H67" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="68" spans="2:8">
+      <c r="I67" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
       <c r="F68" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:10">
       <c r="B69" t="s">
         <v>51</v>
       </c>
@@ -6097,8 +7126,14 @@
       <c r="H69" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="70" spans="2:8">
+      <c r="I69" t="s">
+        <v>42</v>
+      </c>
+      <c r="J69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
       <c r="B70" t="s">
         <v>935</v>
       </c>
@@ -6120,8 +7155,14 @@
       <c r="H70" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="71" spans="2:8">
+      <c r="I70" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
       <c r="B71" t="s">
         <v>936</v>
       </c>
@@ -6143,16 +7184,28 @@
       <c r="H71" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="72" spans="2:8">
+      <c r="I71" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
       <c r="F72" t="s">
         <v>1057</v>
       </c>
       <c r="H72" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="73" spans="2:8">
+      <c r="I72" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
       <c r="B73" t="s">
         <v>102</v>
       </c>
@@ -6168,8 +7221,14 @@
       <c r="G73" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="74" spans="2:8">
+      <c r="I73" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
       <c r="B74" t="s">
         <v>937</v>
       </c>
@@ -6192,7 +7251,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:10">
       <c r="B75" t="s">
         <v>938</v>
       </c>
@@ -6214,8 +7273,14 @@
       <c r="H75" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="76" spans="2:8">
+      <c r="I75" t="s">
+        <v>45</v>
+      </c>
+      <c r="J75" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
       <c r="F76" t="s">
         <v>1058</v>
       </c>
@@ -6225,8 +7290,14 @@
       <c r="H76" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="77" spans="2:8">
+      <c r="I76" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
       <c r="B77" t="s">
         <v>104</v>
       </c>
@@ -6242,8 +7313,14 @@
       <c r="H77" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="78" spans="2:8">
+      <c r="I77" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
       <c r="B78" t="s">
         <v>939</v>
       </c>
@@ -6262,8 +7339,14 @@
       <c r="G78" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="79" spans="2:8">
+      <c r="I78" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
       <c r="B79" t="s">
         <v>940</v>
       </c>
@@ -6285,8 +7368,14 @@
       <c r="H79" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="80" spans="2:8">
+      <c r="I79" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
       <c r="E80" t="s">
         <v>1025</v>
       </c>
@@ -6300,7 +7389,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:10">
       <c r="B81" t="s">
         <v>107</v>
       </c>
@@ -6316,8 +7405,14 @@
       <c r="H81" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="82" spans="2:8">
+      <c r="I81" t="s">
+        <v>628</v>
+      </c>
+      <c r="J81" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
       <c r="B82" t="s">
         <v>218</v>
       </c>
@@ -6336,8 +7431,14 @@
       <c r="H82" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="83" spans="2:8">
+      <c r="I82" t="s">
+        <v>48</v>
+      </c>
+      <c r="J82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
       <c r="B83" t="s">
         <v>941</v>
       </c>
@@ -6356,8 +7457,14 @@
       <c r="G83" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="84" spans="2:8">
+      <c r="I83" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
       <c r="D84" t="s">
         <v>995</v>
       </c>
@@ -6373,8 +7480,14 @@
       <c r="H84" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="85" spans="2:8">
+      <c r="I84" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
       <c r="B85" t="s">
         <v>109</v>
       </c>
@@ -6390,8 +7503,14 @@
       <c r="H85" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="86" spans="2:8">
+      <c r="I85" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
       <c r="B86" t="s">
         <v>942</v>
       </c>
@@ -6407,8 +7526,14 @@
       <c r="H86" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="87" spans="2:8">
+      <c r="I86" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
       <c r="B87" t="s">
         <v>943</v>
       </c>
@@ -6431,7 +7556,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:10">
       <c r="D88" t="s">
         <v>997</v>
       </c>
@@ -6444,8 +7569,14 @@
       <c r="G88" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="89" spans="2:8">
+      <c r="I88" t="s">
+        <v>636</v>
+      </c>
+      <c r="J88" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
       <c r="B89" t="s">
         <v>112</v>
       </c>
@@ -6464,8 +7595,14 @@
       <c r="H89" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="90" spans="2:8">
+      <c r="I89" t="s">
+        <v>51</v>
+      </c>
+      <c r="J89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
       <c r="B90" t="s">
         <v>216</v>
       </c>
@@ -6481,8 +7618,14 @@
       <c r="H90" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="91" spans="2:8">
+      <c r="I90" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10">
       <c r="B91" t="s">
         <v>944</v>
       </c>
@@ -6501,8 +7644,14 @@
       <c r="H91" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="92" spans="2:8">
+      <c r="I91" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10">
       <c r="D92" t="s">
         <v>998</v>
       </c>
@@ -6518,8 +7667,14 @@
       <c r="H92" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="93" spans="2:8">
+      <c r="I92" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
       <c r="B93" t="s">
         <v>115</v>
       </c>
@@ -6535,8 +7690,14 @@
       <c r="G93" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="94" spans="2:8">
+      <c r="I93" t="s">
+        <v>1134</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10">
       <c r="B94" t="s">
         <v>945</v>
       </c>
@@ -6553,7 +7714,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="95" spans="2:8">
+    <row r="95" spans="2:10">
       <c r="B95" t="s">
         <v>946</v>
       </c>
@@ -6575,8 +7736,14 @@
       <c r="H95" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="96" spans="2:8">
+      <c r="I95" t="s">
+        <v>639</v>
+      </c>
+      <c r="J95" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10">
       <c r="D96" t="s">
         <v>999</v>
       </c>
@@ -6589,8 +7756,14 @@
       <c r="H96" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="97" spans="2:8">
+      <c r="I96" t="s">
+        <v>102</v>
+      </c>
+      <c r="J96" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10">
       <c r="B97" t="s">
         <v>642</v>
       </c>
@@ -6609,8 +7782,14 @@
       <c r="H97" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="98" spans="2:8">
+      <c r="I97" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
       <c r="B98" t="s">
         <v>118</v>
       </c>
@@ -6629,8 +7808,14 @@
       <c r="G98" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="99" spans="2:8">
+      <c r="I98" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
       <c r="B99" t="s">
         <v>947</v>
       </c>
@@ -6646,8 +7831,14 @@
       <c r="H99" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="100" spans="2:8">
+      <c r="I99" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10">
       <c r="B100" t="s">
         <v>943</v>
       </c>
@@ -6666,8 +7857,14 @@
       <c r="H100" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="101" spans="2:8">
+      <c r="I100" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10">
       <c r="C101" t="s">
         <v>781</v>
       </c>
@@ -6684,7 +7881,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="102" spans="2:8">
+    <row r="102" spans="2:10">
       <c r="B102" t="s">
         <v>643</v>
       </c>
@@ -6703,8 +7900,14 @@
       <c r="H102" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="103" spans="2:8">
+      <c r="I102" t="s">
+        <v>640</v>
+      </c>
+      <c r="J102" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10">
       <c r="B103" t="s">
         <v>120</v>
       </c>
@@ -6720,8 +7923,14 @@
       <c r="G103" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="104" spans="2:8">
+      <c r="I103" t="s">
+        <v>104</v>
+      </c>
+      <c r="J103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10">
       <c r="B104" t="s">
         <v>948</v>
       </c>
@@ -6740,8 +7949,14 @@
       <c r="H104" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="105" spans="2:8">
+      <c r="I104" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
       <c r="B105" t="s">
         <v>946</v>
       </c>
@@ -6760,8 +7975,14 @@
       <c r="H105" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="106" spans="2:8">
+      <c r="I105" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10">
       <c r="C106" t="s">
         <v>783</v>
       </c>
@@ -6777,8 +7998,14 @@
       <c r="H106" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="107" spans="2:8">
+      <c r="I106" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10">
       <c r="B107" t="s">
         <v>644</v>
       </c>
@@ -6797,8 +8024,14 @@
       <c r="H107" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="108" spans="2:8">
+      <c r="I107" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10">
       <c r="B108" t="s">
         <v>123</v>
       </c>
@@ -6815,7 +8048,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="109" spans="2:8">
+    <row r="109" spans="2:10">
       <c r="B109" t="s">
         <v>949</v>
       </c>
@@ -6834,8 +8067,11 @@
       <c r="H109" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="110" spans="2:8">
+      <c r="I109" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10">
       <c r="B110" t="s">
         <v>944</v>
       </c>
@@ -6854,8 +8090,11 @@
       <c r="H110" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="111" spans="2:8">
+      <c r="I110" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10">
       <c r="C111" t="s">
         <v>784</v>
       </c>
@@ -6871,8 +8110,11 @@
       <c r="H111" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="112" spans="2:8">
+      <c r="I111" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10">
       <c r="B112" t="s">
         <v>647</v>
       </c>
@@ -6891,8 +8133,11 @@
       <c r="H112" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="113" spans="2:8">
+      <c r="I112" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
       <c r="B113" t="s">
         <v>125</v>
       </c>
@@ -6908,8 +8153,11 @@
       <c r="G113" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="114" spans="2:8">
+      <c r="I113" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
       <c r="B114" t="s">
         <v>950</v>
       </c>
@@ -6928,8 +8176,11 @@
       <c r="H114" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="115" spans="2:8">
+      <c r="I114" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9">
       <c r="B115" t="s">
         <v>951</v>
       </c>
@@ -6949,7 +8200,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:9">
       <c r="C116" t="s">
         <v>182</v>
       </c>
@@ -6965,8 +8216,11 @@
       <c r="H116" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="117" spans="2:8">
+      <c r="I116" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9">
       <c r="B117" t="s">
         <v>648</v>
       </c>
@@ -6985,8 +8239,11 @@
       <c r="H117" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="118" spans="2:8">
+      <c r="I117" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9">
       <c r="B118" t="s">
         <v>182</v>
       </c>
@@ -7002,8 +8259,11 @@
       <c r="G118" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="119" spans="2:8">
+      <c r="I118" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9">
       <c r="B119" t="s">
         <v>952</v>
       </c>
@@ -7019,8 +8279,11 @@
       <c r="H119" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="120" spans="2:8">
+      <c r="I119" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9">
       <c r="B120" t="s">
         <v>953</v>
       </c>
@@ -7039,8 +8302,11 @@
       <c r="H120" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="121" spans="2:8">
+      <c r="I120" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9">
       <c r="C121" t="s">
         <v>955</v>
       </c>
@@ -7053,8 +8319,11 @@
       <c r="H121" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="122" spans="2:8">
+      <c r="I121" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9">
       <c r="B122" t="s">
         <v>649</v>
       </c>
@@ -7071,7 +8340,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="123" spans="2:8">
+    <row r="123" spans="2:9">
       <c r="B123" t="s">
         <v>185</v>
       </c>
@@ -7081,8 +8350,11 @@
       <c r="F123" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="124" spans="2:8">
+      <c r="I123" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9">
       <c r="B124" t="s">
         <v>952</v>
       </c>
@@ -7101,8 +8373,11 @@
       <c r="H124" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="125" spans="2:8">
+      <c r="I124" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9">
       <c r="B125" t="s">
         <v>954</v>
       </c>
@@ -7121,8 +8396,11 @@
       <c r="H125" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="126" spans="2:8">
+      <c r="I125" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9">
       <c r="C126" t="s">
         <v>985</v>
       </c>
@@ -7135,8 +8413,11 @@
       <c r="H126" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="127" spans="2:8">
+      <c r="I126" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9">
       <c r="B127" t="s">
         <v>650</v>
       </c>
@@ -7149,8 +8430,11 @@
       <c r="H127" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="128" spans="2:8">
+      <c r="I127" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9">
       <c r="B128" t="s">
         <v>187</v>
       </c>
@@ -7163,8 +8447,11 @@
       <c r="F128" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="129" spans="2:8">
+      <c r="I128" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9">
       <c r="B129" t="s">
         <v>950</v>
       </c>
@@ -7184,7 +8471,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="130" spans="2:8">
+    <row r="130" spans="2:9">
       <c r="B130" t="s">
         <v>946</v>
       </c>
@@ -7203,8 +8490,11 @@
       <c r="H130" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="131" spans="2:8">
+      <c r="I130" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9">
       <c r="C131" t="s">
         <v>946</v>
       </c>
@@ -7214,8 +8504,11 @@
       <c r="H131" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="132" spans="2:8">
+      <c r="I131" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9">
       <c r="B132" t="s">
         <v>651</v>
       </c>
@@ -7231,8 +8524,11 @@
       <c r="H132" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="133" spans="2:8">
+      <c r="I132" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9">
       <c r="B133" t="s">
         <v>189</v>
       </c>
@@ -7245,8 +8541,11 @@
       <c r="F133" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="134" spans="2:8">
+      <c r="I133" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9">
       <c r="B134" t="s">
         <v>955</v>
       </c>
@@ -7265,8 +8564,11 @@
       <c r="H134" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="135" spans="2:8">
+      <c r="I134" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9">
       <c r="B135" t="s">
         <v>956</v>
       </c>
@@ -7285,8 +8587,11 @@
       <c r="H135" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="136" spans="2:8">
+      <c r="I135" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9">
       <c r="C136" t="s">
         <v>944</v>
       </c>
@@ -7297,7 +8602,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="137" spans="2:8">
+    <row r="137" spans="2:9">
       <c r="B137" t="s">
         <v>653</v>
       </c>
@@ -7313,8 +8618,11 @@
       <c r="H137" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="138" spans="2:8">
+      <c r="I137" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
       <c r="B138" t="s">
         <v>190</v>
       </c>
@@ -7327,8 +8635,11 @@
       <c r="F138" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="139" spans="2:8">
+      <c r="I138" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9">
       <c r="B139" t="s">
         <v>955</v>
       </c>
@@ -7347,8 +8658,11 @@
       <c r="H139" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="140" spans="2:8">
+      <c r="I139" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9">
       <c r="B140" t="s">
         <v>954</v>
       </c>
@@ -7364,8 +8678,11 @@
       <c r="H140" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="141" spans="2:8">
+      <c r="I140" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9">
       <c r="D141" t="s">
         <v>654</v>
       </c>
@@ -7375,8 +8692,11 @@
       <c r="H141" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="142" spans="2:8">
+      <c r="I141" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9">
       <c r="B142" t="s">
         <v>654</v>
       </c>
@@ -7395,8 +8715,11 @@
       <c r="H142" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="143" spans="2:8">
+      <c r="I142" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9">
       <c r="B143" t="s">
         <v>192</v>
       </c>
@@ -7410,7 +8733,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="144" spans="2:8">
+    <row r="144" spans="2:9">
       <c r="B144" t="s">
         <v>957</v>
       </c>
@@ -7429,8 +8752,11 @@
       <c r="H144" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="145" spans="2:8">
+      <c r="I144" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
       <c r="B145" t="s">
         <v>958</v>
       </c>
@@ -7443,8 +8769,11 @@
       <c r="H145" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="146" spans="2:8">
+      <c r="I145" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9">
       <c r="C146" t="s">
         <v>647</v>
       </c>
@@ -7457,8 +8786,11 @@
       <c r="H146" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="147" spans="2:8">
+      <c r="I146" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9">
       <c r="B147" t="s">
         <v>195</v>
       </c>
@@ -7477,8 +8809,11 @@
       <c r="H147" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="148" spans="2:8">
+      <c r="I147" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9">
       <c r="B148" t="s">
         <v>959</v>
       </c>
@@ -7491,8 +8826,11 @@
       <c r="F148" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="149" spans="2:8">
+      <c r="I148" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9">
       <c r="B149" t="s">
         <v>960</v>
       </c>
@@ -7508,8 +8846,11 @@
       <c r="H149" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="150" spans="2:8">
+      <c r="I149" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9">
       <c r="D150" t="s">
         <v>655</v>
       </c>
@@ -7523,7 +8864,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="151" spans="2:8">
+    <row r="151" spans="2:9">
       <c r="B151" t="s">
         <v>655</v>
       </c>
@@ -7539,8 +8880,11 @@
       <c r="H151" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="152" spans="2:8">
+      <c r="I151" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9">
       <c r="B152" t="s">
         <v>197</v>
       </c>
@@ -7559,8 +8903,11 @@
       <c r="H152" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="153" spans="2:8">
+      <c r="I152" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9">
       <c r="B153" t="s">
         <v>961</v>
       </c>
@@ -7573,8 +8920,11 @@
       <c r="F153" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="154" spans="2:8">
+      <c r="I153" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9">
       <c r="B154" t="s">
         <v>962</v>
       </c>
@@ -7590,8 +8940,11 @@
       <c r="H154" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="155" spans="2:8">
+      <c r="I154" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9">
       <c r="D155" t="s">
         <v>656</v>
       </c>
@@ -7604,8 +8957,11 @@
       <c r="H155" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="156" spans="2:8">
+      <c r="I155" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9">
       <c r="B156" t="s">
         <v>200</v>
       </c>
@@ -7621,8 +8977,11 @@
       <c r="H156" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="157" spans="2:8">
+      <c r="I156" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9">
       <c r="B157" t="s">
         <v>961</v>
       </c>
@@ -7642,7 +9001,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="158" spans="2:8">
+    <row r="158" spans="2:9">
       <c r="B158" t="s">
         <v>963</v>
       </c>
@@ -7655,8 +9014,11 @@
       <c r="F158" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="159" spans="2:8">
+      <c r="I158" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9">
       <c r="C159" t="s">
         <v>989</v>
       </c>
@@ -7669,8 +9031,11 @@
       <c r="H159" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="160" spans="2:8">
+      <c r="I159" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9">
       <c r="B160" t="s">
         <v>656</v>
       </c>
@@ -7686,8 +9051,11 @@
       <c r="H160" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="161" spans="2:8">
+      <c r="I160" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9">
       <c r="B161" t="s">
         <v>202</v>
       </c>
@@ -7700,8 +9068,11 @@
       <c r="H161" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="162" spans="2:8">
+      <c r="I161" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9">
       <c r="B162" t="s">
         <v>964</v>
       </c>
@@ -7717,8 +9088,11 @@
       <c r="H162" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="163" spans="2:8">
+      <c r="I162" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9">
       <c r="B163" t="s">
         <v>965</v>
       </c>
@@ -7728,8 +9102,11 @@
       <c r="F163" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="164" spans="2:8">
+      <c r="I163" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9">
       <c r="E164" t="s">
         <v>656</v>
       </c>
@@ -7740,7 +9117,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="165" spans="2:8">
+    <row r="165" spans="2:9">
       <c r="E165" t="s">
         <v>202</v>
       </c>
@@ -7750,16 +9127,22 @@
       <c r="H165" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="166" spans="2:8">
+      <c r="I165" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9">
       <c r="E166" t="s">
         <v>1048</v>
       </c>
       <c r="H166" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="167" spans="2:8">
+      <c r="I166" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9">
       <c r="E167" t="s">
         <v>1042</v>
       </c>
@@ -7769,85 +9152,378 @@
       <c r="H167" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="168" spans="2:8">
+      <c r="I167" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9">
       <c r="F168" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="169" spans="2:8">
+      <c r="I168" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9">
       <c r="F169" t="s">
         <v>1069</v>
       </c>
       <c r="H169" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="170" spans="2:8">
+      <c r="I169" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9">
       <c r="F170" t="s">
         <v>1079</v>
       </c>
       <c r="H170" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="171" spans="2:8">
+      <c r="I170" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9">
       <c r="H171" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="172" spans="2:8">
+    <row r="172" spans="2:9">
       <c r="H172" t="s">
         <v>1108</v>
       </c>
+      <c r="I172" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9">
+      <c r="I173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9">
+      <c r="I174" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9">
+      <c r="I175" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9">
+      <c r="I176" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="177" spans="9:9">
+      <c r="I177" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="179" spans="9:9">
+      <c r="I179" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="180" spans="9:9">
+      <c r="I180" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="181" spans="9:9">
+      <c r="I181" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="182" spans="9:9">
+      <c r="I182" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="183" spans="9:9">
+      <c r="I183" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="184" spans="9:9">
+      <c r="I184" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="186" spans="9:9">
+      <c r="I186" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="187" spans="9:9">
+      <c r="I187" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188" spans="9:9">
+      <c r="I188" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="189" spans="9:9">
+      <c r="I189" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="190" spans="9:9">
+      <c r="I190" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="191" spans="9:9">
+      <c r="I191" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="193" spans="9:9">
+      <c r="I193" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="194" spans="9:9">
+      <c r="I194" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="195" spans="9:9">
+      <c r="I195" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="196" spans="9:9">
+      <c r="I196" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="197" spans="9:9">
+      <c r="I197" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="198" spans="9:9">
+      <c r="I198" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="200" spans="9:9">
+      <c r="I200" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="201" spans="9:9">
+      <c r="I201" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="202" spans="9:9">
+      <c r="I202" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="203" spans="9:9">
+      <c r="I203" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="204" spans="9:9">
+      <c r="I204" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="205" spans="9:9">
+      <c r="I205" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="207" spans="9:9">
+      <c r="I207" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="208" spans="9:9">
+      <c r="I208" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="209" spans="9:9">
+      <c r="I209" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="210" spans="9:9">
+      <c r="I210" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="211" spans="9:9">
+      <c r="I211" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="212" spans="9:9">
+      <c r="I212" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="214" spans="9:9">
+      <c r="I214" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="215" spans="9:9">
+      <c r="I215" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="216" spans="9:9">
+      <c r="I216" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="217" spans="9:9">
+      <c r="I217" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="218" spans="9:9">
+      <c r="I218" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="219" spans="9:9">
+      <c r="I219" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="221" spans="9:9">
+      <c r="I221" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="222" spans="9:9">
+      <c r="I222" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="223" spans="9:9">
+      <c r="I223" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="224" spans="9:9">
+      <c r="I224" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="225" spans="9:9">
+      <c r="I225" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="226" spans="9:9">
+      <c r="I226" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="228" spans="9:9">
+      <c r="I228" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="229" spans="9:9">
+      <c r="I229" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="230" spans="9:9">
+      <c r="I230" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="231" spans="9:9">
+      <c r="I231" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="232" spans="9:9">
+      <c r="I232" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="233" spans="9:9">
+      <c r="I233" t="s">
+        <v>1187</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="A26 C26">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+      <formula>"max($24:$24)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+      <formula>"max($24:$24)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:H21">
-      <formula1>$AC$41:$AC$43</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:J21">
+      <formula1>$AB$41:$AB$43</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7864,8 +9540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC313"/>
   <sheetViews>
-    <sheetView topLeftCell="N11" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7879,45 +9555,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="30"/>
       <c r="C1">
         <v>34799</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="30"/>
       <c r="C2">
         <v>4410</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="30"/>
       <c r="C3">
         <v>12630</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:26">
       <c r="B7" s="3" t="s">
@@ -7927,20 +9603,26 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="33" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C8" s="33"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="33" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C9" s="33"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="33" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C10" s="33"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
@@ -7959,64 +9641,64 @@
       <c r="E12" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="22" t="s">
         <v>556</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="22" t="s">
         <v>556</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="22" t="s">
         <v>574</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="M12" s="27" t="s">
+      <c r="M12" s="22" t="s">
         <v>660</v>
       </c>
-      <c r="N12" s="27" t="s">
+      <c r="N12" s="22" t="s">
         <v>723</v>
       </c>
       <c r="O12" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="P12" s="22" t="s">
         <v>756</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="Q12" s="22" t="s">
         <v>768</v>
       </c>
-      <c r="R12" s="27" t="s">
+      <c r="R12" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="S12" s="27" t="s">
+      <c r="S12" s="22" t="s">
         <v>815</v>
       </c>
-      <c r="T12" s="27" t="s">
+      <c r="T12" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="U12" s="27" t="s">
+      <c r="U12" s="22" t="s">
         <v>854</v>
       </c>
-      <c r="V12" s="27" t="s">
+      <c r="V12" s="22" t="s">
         <v>853</v>
       </c>
-      <c r="W12" s="27" t="s">
+      <c r="W12" s="22" t="s">
         <v>868</v>
       </c>
-      <c r="X12" s="27" t="s">
+      <c r="X12" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="Y12" s="27" t="s">
+      <c r="Y12" s="22" t="s">
         <v>705</v>
       </c>
       <c r="Z12" s="15" t="s">
@@ -8039,64 +9721,64 @@
       <c r="E13" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="N13" s="28" t="s">
+      <c r="N13" s="23" t="s">
         <v>430</v>
       </c>
       <c r="O13" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="P13" s="30" t="s">
+      <c r="P13" s="25" t="s">
         <v>772</v>
       </c>
-      <c r="Q13" s="28" t="s">
+      <c r="Q13" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="R13" s="28" t="s">
+      <c r="R13" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="S13" s="28" t="s">
+      <c r="S13" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="T13" s="28" t="s">
+      <c r="T13" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="U13" s="28" t="s">
+      <c r="U13" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="V13" s="28" t="s">
+      <c r="V13" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="W13" s="28" t="s">
+      <c r="W13" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="X13" s="28" t="s">
+      <c r="X13" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="Y13" s="28" t="s">
+      <c r="Y13" s="23" t="s">
         <v>430</v>
       </c>
       <c r="Z13" s="10" t="s">
@@ -8119,64 +9801,64 @@
       <c r="E14" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="N14" s="29" t="s">
+      <c r="N14" s="24" t="s">
         <v>659</v>
       </c>
       <c r="O14" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="P14" s="29" t="s">
+      <c r="P14" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="Q14" s="29" t="s">
+      <c r="Q14" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="R14" s="29" t="s">
+      <c r="R14" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="S14" s="29" t="s">
+      <c r="S14" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="T14" s="29" t="s">
+      <c r="T14" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="U14" s="32" t="s">
+      <c r="U14" s="27" t="s">
         <v>855</v>
       </c>
-      <c r="V14" s="29" t="s">
+      <c r="V14" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="W14" s="29" t="s">
+      <c r="W14" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="X14" s="29" t="s">
+      <c r="X14" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="Y14" s="29" t="s">
+      <c r="Y14" s="24" t="s">
         <v>724</v>
       </c>
       <c r="Z14" s="8" t="s">
@@ -8199,64 +9881,64 @@
       <c r="E15" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="24">
         <v>1E-3</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="24">
         <v>1E-3</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="24">
         <v>1E-3</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="24">
         <v>1E-3</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="24">
         <v>1E-3</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="24">
         <v>1E-3</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="24">
         <v>1E-3</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="24">
         <v>1E-3</v>
       </c>
       <c r="O15" s="17">
         <v>1E-3</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="24">
         <v>1E-3</v>
       </c>
-      <c r="Q15" s="30" t="s">
+      <c r="Q15" s="25" t="s">
         <v>770</v>
       </c>
-      <c r="R15" s="30" t="s">
+      <c r="R15" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="S15" s="30" t="s">
+      <c r="S15" s="25" t="s">
         <v>816</v>
       </c>
-      <c r="T15" s="30" t="s">
+      <c r="T15" s="25" t="s">
         <v>828</v>
       </c>
-      <c r="U15" s="30">
+      <c r="U15" s="25">
         <v>1E-4</v>
       </c>
-      <c r="V15" s="29">
+      <c r="V15" s="24">
         <v>1E-3</v>
       </c>
-      <c r="W15" s="29">
+      <c r="W15" s="24">
         <v>1E-3</v>
       </c>
-      <c r="X15" s="29">
+      <c r="X15" s="24">
         <v>1E-3</v>
       </c>
-      <c r="Y15" s="29">
+      <c r="Y15" s="24">
         <v>1E-3</v>
       </c>
       <c r="Z15" s="8">
@@ -8291,52 +9973,52 @@
       <c r="I16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="23" t="s">
         <v>612</v>
       </c>
       <c r="O16" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="P16" s="28" t="s">
+      <c r="P16" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="Q16" s="28" t="s">
+      <c r="Q16" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="R16" s="28" t="s">
+      <c r="R16" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="S16" s="28" t="s">
+      <c r="S16" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="T16" s="28" t="s">
+      <c r="T16" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="U16" s="28" t="s">
+      <c r="U16" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="V16" s="28" t="s">
+      <c r="V16" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="W16" s="28" t="s">
+      <c r="W16" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="X16" s="29" t="s">
+      <c r="X16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Y16" s="29" t="s">
+      <c r="Y16" s="24" t="s">
         <v>20</v>
       </c>
       <c r="Z16" s="8" t="s">
@@ -8359,64 +10041,64 @@
       <c r="E17" s="8">
         <v>20</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="24">
         <v>20</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="24">
         <v>20</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="24">
         <v>20</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="24">
         <v>20</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="23">
         <v>30</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="23">
         <v>30</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="23">
         <v>30</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="23">
         <v>30</v>
       </c>
       <c r="O17" s="18">
         <v>30</v>
       </c>
-      <c r="P17" s="28">
+      <c r="P17" s="23">
         <v>30</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="23">
         <v>30</v>
       </c>
-      <c r="R17" s="28">
+      <c r="R17" s="23">
         <v>30</v>
       </c>
-      <c r="S17" s="28">
+      <c r="S17" s="23">
         <v>30</v>
       </c>
-      <c r="T17" s="28">
+      <c r="T17" s="23">
         <v>30</v>
       </c>
-      <c r="U17" s="28">
+      <c r="U17" s="23">
         <v>30</v>
       </c>
-      <c r="V17" s="30" t="s">
+      <c r="V17" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="W17" s="28">
+      <c r="W17" s="23">
         <v>30</v>
       </c>
-      <c r="X17" s="28">
+      <c r="X17" s="23">
         <v>30</v>
       </c>
-      <c r="Y17" s="28">
+      <c r="Y17" s="23">
         <v>30</v>
       </c>
       <c r="Z17" s="8">
@@ -8439,64 +10121,64 @@
       <c r="E18" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="24">
         <v>128</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="24">
         <v>128</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="24">
         <v>128</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="24">
         <v>128</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="24">
         <v>128</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="24">
         <v>128</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="24">
         <v>128</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="24">
         <v>128</v>
       </c>
-      <c r="N18" s="29">
+      <c r="N18" s="24">
         <v>128</v>
       </c>
-      <c r="O18" s="31" t="s">
+      <c r="O18" s="26" t="s">
         <v>773</v>
       </c>
-      <c r="P18" s="28" t="s">
+      <c r="P18" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="Q18" s="28" t="s">
+      <c r="Q18" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="R18" s="28" t="s">
+      <c r="R18" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="S18" s="28" t="s">
+      <c r="S18" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="T18" s="28" t="s">
+      <c r="T18" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="U18" s="28" t="s">
+      <c r="U18" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="V18" s="28" t="s">
+      <c r="V18" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="W18" s="30" t="s">
+      <c r="W18" s="25" t="s">
         <v>869</v>
       </c>
-      <c r="X18" s="29">
+      <c r="X18" s="24">
         <v>128</v>
       </c>
-      <c r="Y18" s="29">
+      <c r="Y18" s="24">
         <v>128</v>
       </c>
       <c r="Z18" s="8">
@@ -8519,10 +10201,10 @@
       <c r="E19" s="8">
         <v>5</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="24">
         <v>5</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="23" t="s">
         <v>471</v>
       </c>
       <c r="H19" s="8">
@@ -8531,52 +10213,52 @@
       <c r="I19" s="8">
         <v>5</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="24">
         <v>5</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="24">
         <v>5</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="24">
         <v>5</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="24">
         <v>5</v>
       </c>
-      <c r="N19" s="29">
+      <c r="N19" s="24">
         <v>5</v>
       </c>
       <c r="O19" s="17">
         <v>5</v>
       </c>
-      <c r="P19" s="29">
+      <c r="P19" s="24">
         <v>5</v>
       </c>
-      <c r="Q19" s="29">
+      <c r="Q19" s="24">
         <v>5</v>
       </c>
-      <c r="R19" s="29">
+      <c r="R19" s="24">
         <v>5</v>
       </c>
-      <c r="S19" s="29">
+      <c r="S19" s="24">
         <v>5</v>
       </c>
-      <c r="T19" s="29">
+      <c r="T19" s="24">
         <v>5</v>
       </c>
-      <c r="U19" s="29">
+      <c r="U19" s="24">
         <v>5</v>
       </c>
-      <c r="V19" s="29">
+      <c r="V19" s="24">
         <v>5</v>
       </c>
-      <c r="W19" s="29">
+      <c r="W19" s="24">
         <v>5</v>
       </c>
-      <c r="X19" s="29">
+      <c r="X19" s="24">
         <v>5</v>
       </c>
-      <c r="Y19" s="29">
+      <c r="Y19" s="24">
         <v>5</v>
       </c>
       <c r="Z19" s="8">
@@ -8599,64 +10281,64 @@
       <c r="E20" s="10">
         <v>0</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="23">
         <v>0</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="23">
         <v>0</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="23">
         <v>0.5</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="23">
         <v>0.5</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="23">
         <v>0.5</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="23">
         <v>0.4</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="23">
         <v>0.4</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="23">
         <v>0.4</v>
       </c>
-      <c r="N20" s="28" t="s">
+      <c r="N20" s="23" t="s">
         <v>725</v>
       </c>
       <c r="O20" s="18">
         <v>0.3</v>
       </c>
-      <c r="P20" s="28">
+      <c r="P20" s="23">
         <v>0.3</v>
       </c>
-      <c r="Q20" s="28">
+      <c r="Q20" s="23">
         <v>0.3</v>
       </c>
-      <c r="R20" s="28">
+      <c r="R20" s="23">
         <v>0.3</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="23">
         <v>0.3</v>
       </c>
-      <c r="T20" s="28">
+      <c r="T20" s="23">
         <v>0.3</v>
       </c>
-      <c r="U20" s="28">
+      <c r="U20" s="23">
         <v>0.3</v>
       </c>
-      <c r="V20" s="28">
+      <c r="V20" s="23">
         <v>0.3</v>
       </c>
-      <c r="W20" s="28">
+      <c r="W20" s="23">
         <v>0.3</v>
       </c>
-      <c r="X20" s="28">
+      <c r="X20" s="23">
         <v>0.4</v>
       </c>
-      <c r="Y20" s="28">
+      <c r="Y20" s="23">
         <v>0.4</v>
       </c>
       <c r="Z20" s="10">
@@ -8679,64 +10361,64 @@
       <c r="E21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="29" t="s">
+      <c r="L21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="29" t="s">
+      <c r="M21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="29" t="s">
+      <c r="N21" s="24" t="s">
         <v>12</v>
       </c>
       <c r="O21" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="P21" s="29" t="s">
+      <c r="P21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Q21" s="29" t="s">
+      <c r="Q21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="R21" s="29" t="s">
+      <c r="R21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="S21" s="29" t="s">
+      <c r="S21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="T21" s="29" t="s">
+      <c r="T21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="U21" s="29" t="s">
+      <c r="U21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="V21" s="29" t="s">
+      <c r="V21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="W21" s="29" t="s">
+      <c r="W21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="X21" s="29" t="s">
+      <c r="X21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Y21" s="29" t="s">
+      <c r="Y21" s="24" t="s">
         <v>12</v>
       </c>
       <c r="Z21" s="8" t="s">
@@ -8749,26 +10431,26 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="1:26">
@@ -8810,82 +10492,82 @@
         <v>0.632</v>
       </c>
       <c r="C24" s="8" t="str">
-        <f>RIGHT(C109,5)</f>
+        <f t="shared" ref="C24:I24" si="1">RIGHT(C109,5)</f>
         <v>0.719</v>
       </c>
       <c r="D24" s="8" t="str">
-        <f>RIGHT(D109,5)</f>
+        <f t="shared" si="1"/>
         <v>0.615</v>
       </c>
       <c r="E24" s="8" t="str">
-        <f>RIGHT(E109,5)</f>
+        <f t="shared" si="1"/>
         <v>0.574</v>
       </c>
-      <c r="F24" s="29" t="str">
-        <f>RIGHT(F109,5)</f>
+      <c r="F24" s="24" t="str">
+        <f t="shared" si="1"/>
         <v>0.731</v>
       </c>
-      <c r="G24" s="29" t="str">
-        <f>RIGHT(G109,5)</f>
+      <c r="G24" s="24" t="str">
+        <f t="shared" si="1"/>
         <v>0.546</v>
       </c>
-      <c r="H24" s="29" t="str">
-        <f>RIGHT(H109,5)</f>
+      <c r="H24" s="24" t="str">
+        <f t="shared" si="1"/>
         <v>0.677</v>
       </c>
-      <c r="I24" s="29" t="str">
-        <f>RIGHT(I109,5)</f>
+      <c r="I24" s="24" t="str">
+        <f t="shared" si="1"/>
         <v>0.626</v>
       </c>
-      <c r="J24" s="29" t="str">
+      <c r="J24" s="24" t="str">
         <f>RIGHT(J149,5)</f>
         <v>0.794</v>
       </c>
-      <c r="K24" s="29" t="str">
+      <c r="K24" s="24" t="str">
         <f>RIGHT(K149,5)</f>
         <v>0.821</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="24">
         <f>0.794</f>
         <v>0.79400000000000004</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="24">
         <v>0.84599999999999997</v>
       </c>
-      <c r="N24" s="29">
+      <c r="N24" s="24">
         <v>0.85199999999999998</v>
       </c>
       <c r="O24" s="17">
         <v>0.86</v>
       </c>
-      <c r="P24" s="29">
+      <c r="P24" s="24">
         <v>0.748</v>
       </c>
-      <c r="Q24" s="29">
+      <c r="Q24" s="24">
         <v>0.79500000000000004</v>
       </c>
-      <c r="R24" s="29">
+      <c r="R24" s="24">
         <v>0.82099999999999995</v>
       </c>
-      <c r="S24" s="29">
+      <c r="S24" s="24">
         <v>0.83199999999999996</v>
       </c>
-      <c r="T24" s="29">
+      <c r="T24" s="24">
         <v>0.72499999999999998</v>
       </c>
-      <c r="U24" s="29">
+      <c r="U24" s="24">
         <v>0.55600000000000005</v>
       </c>
-      <c r="V24" s="29">
+      <c r="V24" s="24">
         <v>0.77600000000000002</v>
       </c>
-      <c r="W24" s="29">
+      <c r="W24" s="24">
         <v>0.84699999999999998</v>
       </c>
-      <c r="X24" s="29">
+      <c r="X24" s="24">
         <v>0.73899999999999999</v>
       </c>
-      <c r="Y24" s="29">
+      <c r="Y24" s="24">
         <v>0.72899999999999998</v>
       </c>
       <c r="Z24" s="8" t="str">
@@ -8910,39 +10592,39 @@
         <f>(E24-$C$24)*$C$1</f>
         <v>-5045.8550000000005</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="24">
         <f>(F24-$C$24)*$C$1</f>
         <v>417.58800000000036</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="24">
         <f>(G24-$F$24)*$C$1</f>
         <v>-6437.8149999999978</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="24">
         <f>(H24-$F$24)*$C$1</f>
         <v>-1879.1459999999979</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="24">
         <f>(I24-$H$24)*$C$1</f>
         <v>-1774.7490000000016</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="24">
         <f>(J24-$H$24)*$C$1</f>
         <v>4071.4829999999997</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="24">
         <f>(K24-$J$24)*$C$1</f>
         <v>939.57299999999702</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="24">
         <f>(L24-$K$24)*$C$1</f>
         <v>-939.57299999999702</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="24">
         <f>(M24-$K$24)*$C$1</f>
         <v>869.97500000000082</v>
       </c>
-      <c r="N25" s="29">
+      <c r="N25" s="24">
         <f>(N24-$K$24)*$C$1</f>
         <v>1078.7690000000009</v>
       </c>
@@ -8950,43 +10632,43 @@
         <f>(O24-$N$24)*$C$1</f>
         <v>278.39200000000022</v>
       </c>
-      <c r="P25" s="29">
+      <c r="P25" s="24">
         <f>(P24-$O$24)*$C$1</f>
         <v>-3897.4879999999994</v>
       </c>
-      <c r="Q25" s="29">
-        <f t="shared" ref="Q25:V25" si="1">(Q24-$O$24)*$C$1</f>
+      <c r="Q25" s="24">
+        <f t="shared" ref="Q25:V25" si="2">(Q24-$O$24)*$C$1</f>
         <v>-2261.9349999999981</v>
       </c>
-      <c r="R25" s="29">
-        <f t="shared" si="1"/>
+      <c r="R25" s="24">
+        <f t="shared" si="2"/>
         <v>-1357.1610000000012</v>
       </c>
-      <c r="S25" s="29">
-        <f t="shared" si="1"/>
+      <c r="S25" s="24">
+        <f t="shared" si="2"/>
         <v>-974.37200000000087</v>
       </c>
-      <c r="T25" s="29">
-        <f t="shared" si="1"/>
+      <c r="T25" s="24">
+        <f t="shared" si="2"/>
         <v>-4697.8650000000007</v>
       </c>
-      <c r="U25" s="29">
-        <f t="shared" si="1"/>
+      <c r="U25" s="24">
+        <f t="shared" si="2"/>
         <v>-10578.895999999997</v>
       </c>
-      <c r="V25" s="29">
-        <f t="shared" si="1"/>
+      <c r="V25" s="24">
+        <f t="shared" si="2"/>
         <v>-2923.1159999999986</v>
       </c>
-      <c r="W25" s="29">
+      <c r="W25" s="24">
         <f>(W24-$N$24)*$C$1</f>
         <v>-173.99500000000015</v>
       </c>
-      <c r="X25" s="29">
+      <c r="X25" s="24">
         <f>(X24-$J$24)*$C$1</f>
         <v>-1913.9450000000018</v>
       </c>
-      <c r="Y25" s="29">
+      <c r="Y25" s="24">
         <f>(Y24-$J$24)*$C$1</f>
         <v>-2261.9350000000022</v>
       </c>
@@ -9000,86 +10682,86 @@
         <v>17</v>
       </c>
       <c r="B26" s="8" t="str">
-        <f t="shared" ref="B26" si="2">RIGHT(B70,5)</f>
+        <f t="shared" ref="B26" si="3">RIGHT(B70,5)</f>
         <v>0.586</v>
       </c>
       <c r="C26" s="8" t="str">
-        <f>RIGHT(C110,5)</f>
+        <f t="shared" ref="C26:I26" si="4">RIGHT(C110,5)</f>
         <v>0.660</v>
       </c>
       <c r="D26" s="8" t="str">
-        <f>RIGHT(D110,5)</f>
+        <f t="shared" si="4"/>
         <v>0.560</v>
       </c>
       <c r="E26" s="8" t="str">
-        <f>RIGHT(E110,5)</f>
+        <f t="shared" si="4"/>
         <v>0.538</v>
       </c>
-      <c r="F26" s="29" t="str">
-        <f>RIGHT(F110,5)</f>
+      <c r="F26" s="24" t="str">
+        <f t="shared" si="4"/>
         <v>0.666</v>
       </c>
-      <c r="G26" s="29" t="str">
-        <f>RIGHT(G110,5)</f>
+      <c r="G26" s="24" t="str">
+        <f t="shared" si="4"/>
         <v>0.506</v>
       </c>
-      <c r="H26" s="29" t="str">
-        <f>RIGHT(H110,5)</f>
+      <c r="H26" s="24" t="str">
+        <f t="shared" si="4"/>
         <v>0.615</v>
       </c>
-      <c r="I26" s="29" t="str">
-        <f>RIGHT(I110,5)</f>
+      <c r="I26" s="24" t="str">
+        <f t="shared" si="4"/>
         <v>0.567</v>
       </c>
-      <c r="J26" s="29" t="str">
+      <c r="J26" s="24" t="str">
         <f>RIGHT(J150,5)</f>
         <v>0.710</v>
       </c>
-      <c r="K26" s="29" t="str">
+      <c r="K26" s="24" t="str">
         <f>RIGHT(K150,5)</f>
         <v>0.742</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="24">
         <f>0.721</f>
         <v>0.72099999999999997</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="24">
         <v>0.77</v>
       </c>
-      <c r="N26" s="29">
+      <c r="N26" s="24">
         <v>0.76300000000000001</v>
       </c>
       <c r="O26" s="17">
         <v>0.77300000000000002</v>
       </c>
-      <c r="P26" s="29">
+      <c r="P26" s="24">
         <v>0.67</v>
       </c>
-      <c r="Q26" s="29">
+      <c r="Q26" s="24">
         <v>0.72799999999999998</v>
       </c>
-      <c r="R26" s="29">
+      <c r="R26" s="24">
         <v>0.73699999999999999</v>
       </c>
-      <c r="S26" s="29">
+      <c r="S26" s="24">
         <v>0.74399999999999999</v>
       </c>
-      <c r="T26" s="29">
+      <c r="T26" s="24">
         <v>0.66500000000000004</v>
       </c>
-      <c r="U26" s="29">
+      <c r="U26" s="24">
         <v>0.50700000000000001</v>
       </c>
-      <c r="V26" s="29">
+      <c r="V26" s="24">
         <v>0.69499999999999995</v>
       </c>
-      <c r="W26" s="29">
+      <c r="W26" s="24">
         <v>0.76800000000000002</v>
       </c>
-      <c r="X26" s="29">
+      <c r="X26" s="24">
         <v>0.68700000000000006</v>
       </c>
-      <c r="Y26" s="29">
+      <c r="Y26" s="24">
         <v>0.65</v>
       </c>
       <c r="Z26" s="8" t="str">
@@ -9104,39 +10786,39 @@
         <f>(E26-$C$26)*$C$2</f>
         <v>-538.02</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="24">
         <f>(F26-$C$26)*$C$2</f>
         <v>26.460000000000022</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="24">
         <f>(G26-$F$26)*$C$2</f>
         <v>-705.60000000000014</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="24">
         <f>(H26-$F$26)*$C$2</f>
         <v>-224.9100000000002</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="24">
         <f>(I26-$H$26)*$C$2</f>
         <v>-211.68000000000018</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J27" s="24">
         <f>(J26-$H$26)*$C$2</f>
         <v>418.94999999999987</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="24">
         <f>(K26-$J$26)*$C$2</f>
         <v>141.12000000000012</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L27" s="24">
         <f>(L26-$K$26)*$C$2</f>
         <v>-92.610000000000085</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="24">
         <f>(M26-$K$26)*$C$2</f>
         <v>123.4800000000001</v>
       </c>
-      <c r="N27" s="29">
+      <c r="N27" s="24">
         <f>(N26-$K$26)*$C$2</f>
         <v>92.610000000000085</v>
       </c>
@@ -9144,43 +10826,43 @@
         <f>(O26-$N$26)*$C$2</f>
         <v>44.100000000000037</v>
       </c>
-      <c r="P27" s="29">
+      <c r="P27" s="24">
         <f>(P26-$O$26)*$C$2</f>
         <v>-454.2299999999999</v>
       </c>
-      <c r="Q27" s="29">
-        <f t="shared" ref="Q27:V27" si="3">(Q26-$O$26)*$C$2</f>
+      <c r="Q27" s="24">
+        <f t="shared" ref="Q27:V27" si="5">(Q26-$O$26)*$C$2</f>
         <v>-198.45000000000019</v>
       </c>
-      <c r="R27" s="29">
-        <f t="shared" si="3"/>
+      <c r="R27" s="24">
+        <f t="shared" si="5"/>
         <v>-158.76000000000013</v>
       </c>
-      <c r="S27" s="29">
-        <f t="shared" si="3"/>
+      <c r="S27" s="24">
+        <f t="shared" si="5"/>
         <v>-127.89000000000011</v>
       </c>
-      <c r="T27" s="29">
-        <f t="shared" si="3"/>
+      <c r="T27" s="24">
+        <f t="shared" si="5"/>
         <v>-476.27999999999992</v>
       </c>
-      <c r="U27" s="29">
-        <f t="shared" si="3"/>
+      <c r="U27" s="24">
+        <f t="shared" si="5"/>
         <v>-1173.0600000000002</v>
       </c>
-      <c r="V27" s="29">
-        <f t="shared" si="3"/>
+      <c r="V27" s="24">
+        <f t="shared" si="5"/>
         <v>-343.9800000000003</v>
       </c>
-      <c r="W27" s="29">
+      <c r="W27" s="24">
         <f>(W26-$N$26)*$C$2</f>
         <v>22.050000000000018</v>
       </c>
-      <c r="X27" s="29">
+      <c r="X27" s="24">
         <f>(X26-$J$26)*$C$2</f>
         <v>-101.42999999999959</v>
       </c>
-      <c r="Y27" s="29">
+      <c r="Y27" s="24">
         <f>(Y26-$J$26)*$C$2</f>
         <v>-264.59999999999974</v>
       </c>
@@ -9194,103 +10876,103 @@
         <v>22</v>
       </c>
       <c r="B28" s="8">
-        <f t="shared" ref="B28:C28" si="4">ABS(B24-B26)</f>
+        <f t="shared" ref="B28:C28" si="6">ABS(B24-B26)</f>
         <v>4.6000000000000041E-2</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.8999999999999941E-2</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" ref="D28" si="5">ABS(D24-D26)</f>
+        <f t="shared" ref="D28" si="7">ABS(D24-D26)</f>
         <v>5.4999999999999938E-2</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:F28" si="6">ABS(E24-E26)</f>
+        <f t="shared" ref="E28:F28" si="8">ABS(E24-E26)</f>
         <v>3.5999999999999921E-2</v>
       </c>
-      <c r="F28" s="29">
-        <f t="shared" si="6"/>
+      <c r="F28" s="24">
+        <f t="shared" si="8"/>
         <v>6.4999999999999947E-2</v>
       </c>
-      <c r="G28" s="29">
-        <f t="shared" ref="G28:H28" si="7">ABS(G24-G26)</f>
+      <c r="G28" s="24">
+        <f t="shared" ref="G28:H28" si="9">ABS(G24-G26)</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="H28" s="29">
-        <f t="shared" si="7"/>
+      <c r="H28" s="24">
+        <f t="shared" si="9"/>
         <v>6.2000000000000055E-2</v>
       </c>
-      <c r="I28" s="29">
-        <f t="shared" ref="I28" si="8">ABS(I24-I26)</f>
+      <c r="I28" s="24">
+        <f t="shared" ref="I28" si="10">ABS(I24-I26)</f>
         <v>5.9000000000000052E-2</v>
       </c>
-      <c r="J28" s="29">
-        <f t="shared" ref="J28:K28" si="9">ABS(J24-J26)</f>
+      <c r="J28" s="24">
+        <f t="shared" ref="J28:K28" si="11">ABS(J24-J26)</f>
         <v>8.4000000000000075E-2</v>
       </c>
-      <c r="K28" s="29">
-        <f t="shared" si="9"/>
+      <c r="K28" s="24">
+        <f t="shared" si="11"/>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="L28" s="29">
-        <f t="shared" ref="L28:X28" si="10">ABS(L24-L26)</f>
+      <c r="L28" s="24">
+        <f t="shared" ref="L28:X28" si="12">ABS(L24-L26)</f>
         <v>7.3000000000000065E-2</v>
       </c>
-      <c r="M28" s="29">
-        <f t="shared" si="10"/>
+      <c r="M28" s="24">
+        <f t="shared" si="12"/>
         <v>7.5999999999999956E-2</v>
       </c>
-      <c r="N28" s="29">
-        <f t="shared" ref="N28" si="11">ABS(N24-N26)</f>
+      <c r="N28" s="24">
+        <f t="shared" ref="N28" si="13">ABS(N24-N26)</f>
         <v>8.8999999999999968E-2</v>
       </c>
       <c r="O28" s="20">
         <f>ABS(O24-O26)</f>
         <v>8.6999999999999966E-2</v>
       </c>
-      <c r="P28" s="29">
+      <c r="P28" s="24">
         <f>ABS(P24-P26)</f>
         <v>7.7999999999999958E-2</v>
       </c>
-      <c r="Q28" s="29">
-        <f t="shared" ref="Q28:R28" si="12">ABS(Q24-Q26)</f>
+      <c r="Q28" s="24">
+        <f t="shared" ref="Q28:R28" si="14">ABS(Q24-Q26)</f>
         <v>6.700000000000006E-2</v>
       </c>
-      <c r="R28" s="29">
-        <f t="shared" si="12"/>
+      <c r="R28" s="24">
+        <f t="shared" si="14"/>
         <v>8.3999999999999964E-2</v>
       </c>
-      <c r="S28" s="29">
-        <f t="shared" ref="S28:T28" si="13">ABS(S24-S26)</f>
+      <c r="S28" s="24">
+        <f t="shared" ref="S28:T28" si="15">ABS(S24-S26)</f>
         <v>8.7999999999999967E-2</v>
       </c>
-      <c r="T28" s="29">
-        <f t="shared" si="13"/>
+      <c r="T28" s="24">
+        <f t="shared" si="15"/>
         <v>5.9999999999999942E-2</v>
       </c>
-      <c r="U28" s="29">
-        <f t="shared" ref="U28:V28" si="14">ABS(U24-U26)</f>
+      <c r="U28" s="24">
+        <f t="shared" ref="U28:V28" si="16">ABS(U24-U26)</f>
         <v>4.9000000000000044E-2</v>
       </c>
-      <c r="V28" s="29">
-        <f t="shared" si="14"/>
+      <c r="V28" s="24">
+        <f t="shared" si="16"/>
         <v>8.1000000000000072E-2</v>
       </c>
-      <c r="W28" s="29">
+      <c r="W28" s="24">
         <f>ABS(W24-W26)</f>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="X28" s="29">
-        <f t="shared" si="10"/>
+      <c r="X28" s="24">
+        <f t="shared" si="12"/>
         <v>5.1999999999999935E-2</v>
       </c>
-      <c r="Y28" s="29">
-        <f t="shared" ref="Y28" si="15">ABS(Y24-Y26)</f>
+      <c r="Y28" s="24">
+        <f t="shared" ref="Y28" si="17">ABS(Y24-Y26)</f>
         <v>7.8999999999999959E-2</v>
       </c>
       <c r="Z28" s="8">
-        <f t="shared" ref="Z28" si="16">ABS(Z24-Z26)</f>
+        <f t="shared" ref="Z28" si="18">ABS(Z24-Z26)</f>
         <v>4.9000000000000044E-2</v>
       </c>
     </row>
@@ -16277,7 +17959,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -16285,92 +17970,92 @@
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="A26:C26 AA26:XFD26">
-    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="39" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="38" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z26">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:N26">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Y26">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:R26">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T26">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U26">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V26">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16390,11 +18075,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G28"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16406,55 +18091,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="30"/>
       <c r="C1">
         <v>34799</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="30"/>
       <c r="C2">
         <v>4410</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="30"/>
       <c r="C3">
         <v>12630</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="33" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="33" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C8" s="33"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -16465,8 +18154,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="33" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C9" s="33"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -17754,7 +19445,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -17762,37 +19456,37 @@
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="A25:C25 K25:XFD25">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25 J25">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17803,7 +19497,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -17816,8 +19510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17830,60 +19524,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="30"/>
       <c r="C1">
         <v>34799</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="30"/>
       <c r="C2">
         <v>4410</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="30"/>
       <c r="C3">
         <v>12630</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="33" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="33" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C8" s="33"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="33" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C9" s="33"/>
     </row>
     <row r="10" spans="1:9" ht="16" thickBot="1"/>
     <row r="11" spans="1:9" ht="45">
@@ -19069,7 +20769,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -19077,12 +20780,12 @@
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="A23:D23 F23:XFD23">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"max($24:$24)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19118,45 +20821,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="30"/>
       <c r="C1">
         <v>34799</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="30"/>
       <c r="C2">
         <v>4410</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="30"/>
       <c r="C3">
         <v>12630</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
@@ -19293,14 +20996,14 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
